--- a/spec/ASW/Eng/ETS/EngDem/EngPrt/EngPrt_TrqLimPTO/EngPrt_TrqLimPTO.xlsx
+++ b/spec/ASW/Eng/ETS/EngDem/EngPrt/EngPrt_TrqLimPTO/EngPrt_TrqLimPTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\EngDem\EngPrt\EngPrt_TrqLimPTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1937E06-E86D-4F69-B6F0-27DC20AE52AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,138 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTOSwt_st</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>Power Take-off switch current state for a specific input voltage</t>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>EngPrt_trqUnLim</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Enabled torque from the maximum power manager</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimPTO</t>
+  </si>
+  <si>
+    <t>Torque limitation value from PTO state</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim_mp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limitation factor calculate from PTO switch </t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim0_CUR</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim0_CURX</t>
+  </si>
+  <si>
+    <t>[600 700 800 900 1000 1100 1200 1300 1400 1500 1600 1700 1800 1900 2000 2100 2200 2300 2400 2500 2600 2700 2800 2900 3000]</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim1_CUR</t>
+  </si>
+  <si>
+    <t>[0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9]</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim1_CURX</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim2_CUR</t>
+  </si>
+  <si>
+    <t>[0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75 0.75]</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim2_CURX</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim3_CUR</t>
+  </si>
+  <si>
+    <t>[0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5 0.5]</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim3_CURX</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim4_CUR</t>
+  </si>
+  <si>
+    <t>[0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 0.25 ]</t>
+  </si>
+  <si>
+    <t>EngPrt_facPTOLim4_CURX</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac_10</t>
+  </si>
+  <si>
+    <t>Fac_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curve for PTO switch 0 limitation Fac_10</t>
+  </si>
+  <si>
+    <t>Curve for PTO switch 1 limitation Fac_10</t>
+  </si>
+  <si>
+    <t>Curve for PTO switch 2 limitation Fac_10</t>
+  </si>
+  <si>
+    <t>Curve for PTO switch 3 limitation Fac_10</t>
+  </si>
+  <si>
+    <t>Curve for PTO switch 4 limitation Fac_10</t>
+  </si>
+  <si>
+    <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 25]</t>
+  </si>
+  <si>
+    <t>[1 25]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +633,81 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>255</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +761,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +839,29 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,20 +913,250 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="6"/>
@@ -729,7 +1215,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
